--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2306831.468169162</v>
+        <v>2304579.388457954</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738218</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>11.29286655851909</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>176.1306599459546</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,7 +874,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289033</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157667</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>96.04699508553963</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>124.2292170629832</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177672</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>92.11587235770475</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>148.3788644598938</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.787132650395</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>99.98993057842706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.41782514683927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8000472740333</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>140.4383865840207</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>72.60410776434607</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.05355358057933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805175664</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>95.573626000559</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>68.62151774815467</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>14.53306611597334</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>28.87857325623944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>252.1248285323199</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>230.5137773805997</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>56.10180801516533</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.004869410821</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470409</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>920.7766538636586</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>534.9884012654143</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474942</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.0847133907091</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1749.384790567326</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1527.618175136853</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.515308262496</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1238.515308262496</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W4" t="n">
-        <v>1238.515308262496</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X4" t="n">
-        <v>1010.525757364479</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y4" t="n">
-        <v>789.7331782209488</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4550,10 +4550,10 @@
         <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2327.726874697683</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.5548741173876</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>804.6186911894807</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>654.502051777145</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>506.5889581947519</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>359.6990106968415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>191.9961740715604</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882605</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947627</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1155.203338947627</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3232.559485894317</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3026.581738278539</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2773.051261552376</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2773.051261552376</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>975.2294612008255</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
         <v>380.4321398396066</v>
@@ -4954,10 +4954,10 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344356</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>975.2294612008255</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,22 +5051,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854711</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>924.6979859831846</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>774.5813465708488</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>626.6682529884557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.6425904082687</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>470.7064074803617</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>821.2910552385084</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6269,7 +6269,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565526</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2283.378363670482</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>2063.776898693423</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1774.701672037621</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1520.017183831734</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1230.600013794774</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1002.610462896756</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>781.8178837532263</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
         <v>1307.627092998424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>809.0422355233313</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>640.1060525954244</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2310.602715440587</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2091.001250463528</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1801.926023807726</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>809.0422355233313</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,19 +6783,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7023,16 +7023,16 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1246.075525424376</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2140.394052542956</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1851.318825887154</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823282</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>186.533067758164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.414155035098</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.49466557219056</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>4.982661438910498</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948125</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>85.45266000108559</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>112.4047682534899</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>271.9899322206177</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>257.6444250803515</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>34.39816980427108</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>21.62386594322825</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>161.3036423121229</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902524</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902524</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982123</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
@@ -26341,19 +26341,19 @@
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="C4" t="n">
         <v>92183.89891818169</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818177</v>
-      </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,19 +26430,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
+        <v>12996.86414683045</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="J4" t="n">
-        <v>12996.86414683052</v>
-      </c>
       <c r="K4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913081.2578089553</v>
+        <v>-913081.2578089556</v>
       </c>
       <c r="C6" t="n">
-        <v>415663.4879186377</v>
+        <v>415663.4879186376</v>
       </c>
       <c r="D6" t="n">
-        <v>415663.4879186372</v>
+        <v>415663.4879186373</v>
       </c>
       <c r="E6" t="n">
-        <v>165828.0939894115</v>
+        <v>165793.3560639757</v>
       </c>
       <c r="F6" t="n">
-        <v>491240.5557967669</v>
+        <v>491205.8178713311</v>
       </c>
       <c r="G6" t="n">
-        <v>491240.5557967668</v>
+        <v>491205.8178713307</v>
       </c>
       <c r="H6" t="n">
-        <v>491240.5557967665</v>
+        <v>491205.8178713307</v>
       </c>
       <c r="I6" t="n">
-        <v>491240.5557967665</v>
+        <v>491205.8178713311</v>
       </c>
       <c r="J6" t="n">
-        <v>273709.3533994893</v>
+        <v>273674.6154740536</v>
       </c>
       <c r="K6" t="n">
-        <v>491240.5557967667</v>
+        <v>491205.817871331</v>
       </c>
       <c r="L6" t="n">
-        <v>491240.5557967667</v>
+        <v>491205.8178713311</v>
       </c>
       <c r="M6" t="n">
-        <v>406185.5278612548</v>
+        <v>406150.789935819</v>
       </c>
       <c r="N6" t="n">
-        <v>491240.5557967668</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="O6" t="n">
-        <v>491240.5557967666</v>
+        <v>491205.8178713314</v>
       </c>
       <c r="P6" t="n">
-        <v>491240.5557967667</v>
+        <v>491205.8178713314</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>395.5831791831923</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>13.63836538548728</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.32475882319144</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659917</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>273.6841055929294</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>20.52579785133754</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>17.07188943047109</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>18.867956638734</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>578.1083652167721</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>223.6976288294628</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,22 +33029,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>194.5189324111251</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,10 +33266,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>186.6878763515707</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>622.4211036182644</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,19 +34451,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>446.7666531334388</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191356</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>81.10138438501835</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>55.9645526312509</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,10 +36914,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>44.0916319071262</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>483.8667238383903</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
